--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>24.974539610159</v>
+        <v>22.14391655709333</v>
       </c>
       <c r="R2">
-        <v>224.770856491431</v>
+        <v>199.29524901384</v>
       </c>
       <c r="S2">
-        <v>0.000163087390481988</v>
+        <v>9.166439187478166E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001630873904819879</v>
+        <v>9.166439187478164E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>8.504628935238667</v>
+        <v>9.141644806263999</v>
       </c>
       <c r="R3">
-        <v>76.54166041714799</v>
+        <v>82.274803256376</v>
       </c>
       <c r="S3">
-        <v>5.553646880847754E-05</v>
+        <v>3.78416938910033E-05</v>
       </c>
       <c r="T3">
-        <v>5.553646880847752E-05</v>
+        <v>3.78416938910033E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>1449.425899445954</v>
+        <v>6076.097343966208</v>
       </c>
       <c r="R4">
-        <v>13044.83309501358</v>
+        <v>54684.87609569588</v>
       </c>
       <c r="S4">
-        <v>0.009464962771185352</v>
+        <v>0.02515190872267931</v>
       </c>
       <c r="T4">
-        <v>0.009464962771185349</v>
+        <v>0.02515190872267931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>26.61160873424922</v>
+        <v>38.289196534058</v>
       </c>
       <c r="R5">
-        <v>239.504478608243</v>
+        <v>344.602768806522</v>
       </c>
       <c r="S5">
-        <v>0.000173777690910105</v>
+        <v>0.0001584975226319731</v>
       </c>
       <c r="T5">
-        <v>0.000173777690910105</v>
+        <v>0.0001584975226319731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>3319.141363335005</v>
+        <v>4271.043936458444</v>
       </c>
       <c r="R6">
-        <v>29872.27227001504</v>
+        <v>38439.395428126</v>
       </c>
       <c r="S6">
-        <v>0.02167447776962995</v>
+        <v>0.01767991873057015</v>
       </c>
       <c r="T6">
-        <v>0.02167447776962994</v>
+        <v>0.01767991873057015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>549.7616252970629</v>
+        <v>453.48444374436</v>
       </c>
       <c r="R7">
-        <v>4947.854627673567</v>
+        <v>4081.35999369924</v>
       </c>
       <c r="S7">
-        <v>0.003590023690381199</v>
+        <v>0.001877191672635022</v>
       </c>
       <c r="T7">
-        <v>0.0035900236903812</v>
+        <v>0.001877191672635022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>187.211404052604</v>
@@ -948,10 +948,10 @@
         <v>1684.902636473436</v>
       </c>
       <c r="S8">
-        <v>0.001222517805412865</v>
+        <v>0.0007749586420388194</v>
       </c>
       <c r="T8">
-        <v>0.001222517805412865</v>
+        <v>0.0007749586420388193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>31906.04314094868</v>
+        <v>124432.1715655337</v>
       </c>
       <c r="R9">
-        <v>287154.3882685381</v>
+        <v>1119889.544089803</v>
       </c>
       <c r="S9">
-        <v>0.2083511206887839</v>
+        <v>0.5150850034502805</v>
       </c>
       <c r="T9">
-        <v>0.2083511206887839</v>
+        <v>0.5150850034502804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>585.798236839539</v>
+        <v>784.123032025413</v>
       </c>
       <c r="R10">
-        <v>5272.184131555851</v>
+        <v>7057.107288228717</v>
       </c>
       <c r="S10">
-        <v>0.003825348025885059</v>
+        <v>0.003245864872201003</v>
       </c>
       <c r="T10">
-        <v>0.00382534802588506</v>
+        <v>0.003245864872201002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>73063.87140588192</v>
+        <v>87466.54995464883</v>
       </c>
       <c r="R11">
-        <v>657574.8426529373</v>
+        <v>787198.9495918395</v>
       </c>
       <c r="S11">
-        <v>0.4771177491996601</v>
+        <v>0.3620663982501252</v>
       </c>
       <c r="T11">
-        <v>0.4771177491996602</v>
+        <v>0.3620663982501252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>101.363409442578</v>
+        <v>14.93354228128</v>
       </c>
       <c r="R12">
-        <v>912.2706849832019</v>
+        <v>134.40188053152</v>
       </c>
       <c r="S12">
-        <v>0.0006619178649292466</v>
+        <v>6.181716175729452E-05</v>
       </c>
       <c r="T12">
-        <v>0.0006619178649292465</v>
+        <v>6.181716175729451E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>34.517480537224</v>
+        <v>6.164995197792</v>
       </c>
       <c r="R13">
-        <v>310.657324835016</v>
+        <v>55.484956780128</v>
       </c>
       <c r="S13">
-        <v>0.000225404188213295</v>
+        <v>2.551989998063517E-05</v>
       </c>
       <c r="T13">
-        <v>0.000225404188213295</v>
+        <v>2.551989998063516E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>5882.741111369849</v>
+        <v>4097.633603222128</v>
       </c>
       <c r="R14">
-        <v>52944.67000232864</v>
+        <v>36878.70242899915</v>
       </c>
       <c r="S14">
-        <v>0.03841515846579045</v>
+        <v>0.01696208940259527</v>
       </c>
       <c r="T14">
-        <v>0.03841515846579045</v>
+        <v>0.01696208940259527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>108.0077324411673</v>
+        <v>25.821689396424</v>
       </c>
       <c r="R15">
-        <v>972.0695919705061</v>
+        <v>232.395204567816</v>
       </c>
       <c r="S15">
-        <v>0.0007053062643261513</v>
+        <v>0.0001068884742949643</v>
       </c>
       <c r="T15">
-        <v>0.0007053062643261511</v>
+        <v>0.0001068884742949642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>13471.29878112619</v>
+        <v>2880.331265964584</v>
       </c>
       <c r="R16">
-        <v>121241.6890301357</v>
+        <v>25922.98139368126</v>
       </c>
       <c r="S16">
-        <v>0.08796954814427781</v>
+        <v>0.01192308565703971</v>
       </c>
       <c r="T16">
-        <v>0.08796954814427779</v>
+        <v>0.0119230856570397</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>10.934556672692</v>
+        <v>17.59823205924</v>
       </c>
       <c r="R17">
-        <v>98.41101005422799</v>
+        <v>158.38408853316</v>
       </c>
       <c r="S17">
-        <v>7.14042517565109E-05</v>
+        <v>7.284760289004925E-05</v>
       </c>
       <c r="T17">
-        <v>7.14042517565109E-05</v>
+        <v>7.284760289004923E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>3.723566020602666</v>
+        <v>7.265055677436001</v>
       </c>
       <c r="R18">
-        <v>33.51209418542399</v>
+        <v>65.38550109692402</v>
       </c>
       <c r="S18">
-        <v>2.431542983641102E-05</v>
+        <v>3.007358291346519E-05</v>
       </c>
       <c r="T18">
-        <v>2.431542983641102E-05</v>
+        <v>3.007358291346519E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>634.5994716119794</v>
+        <v>4828.801210389175</v>
       </c>
       <c r="R19">
-        <v>5711.395244507815</v>
+        <v>43459.21089350257</v>
       </c>
       <c r="S19">
-        <v>0.004144027214994063</v>
+        <v>0.0199887461322982</v>
       </c>
       <c r="T19">
-        <v>0.004144027214994063</v>
+        <v>0.01998874613229819</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>11.65131163169822</v>
+        <v>30.42922259171701</v>
       </c>
       <c r="R20">
-        <v>104.861804685284</v>
+        <v>273.8630033254531</v>
       </c>
       <c r="S20">
-        <v>7.608476630068291E-05</v>
+        <v>0.0001259612849831943</v>
       </c>
       <c r="T20">
-        <v>7.608476630068291E-05</v>
+        <v>0.0001259612849831942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>1453.213549021724</v>
+        <v>3394.287642622498</v>
       </c>
       <c r="R21">
-        <v>13078.92194119552</v>
+        <v>30548.58878360248</v>
       </c>
       <c r="S21">
-        <v>0.009489696675994606</v>
+        <v>0.01405059993822149</v>
       </c>
       <c r="T21">
-        <v>0.009489696675994606</v>
+        <v>0.01405059993822149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>105.007752799919</v>
+        <v>5.383541478528889</v>
       </c>
       <c r="R22">
-        <v>945.069775199271</v>
+        <v>48.45187330676</v>
       </c>
       <c r="S22">
-        <v>0.0006857159592063217</v>
+        <v>2.228508468633739E-05</v>
       </c>
       <c r="T22">
-        <v>0.0006857159592063217</v>
+        <v>2.228508468633738E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>35.75849592531867</v>
+        <v>2.222480556662667</v>
       </c>
       <c r="R23">
-        <v>321.826463327868</v>
+        <v>20.002325009964</v>
       </c>
       <c r="S23">
-        <v>0.0002335081999128749</v>
+        <v>9.199923064863223E-06</v>
       </c>
       <c r="T23">
-        <v>0.0002335081999128749</v>
+        <v>9.199923064863221E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>6094.24473590334</v>
+        <v>1477.196772959436</v>
       </c>
       <c r="R24">
-        <v>54848.20262313006</v>
+        <v>13294.77095663493</v>
       </c>
       <c r="S24">
-        <v>0.03979630801813768</v>
+        <v>0.006114832645959465</v>
       </c>
       <c r="T24">
-        <v>0.03979630801813768</v>
+        <v>0.006114832645959464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>111.8909607621959</v>
+        <v>9.308718138870335</v>
       </c>
       <c r="R25">
-        <v>1007.018646859763</v>
+        <v>83.778463249833</v>
       </c>
       <c r="S25">
-        <v>0.0007306643122985226</v>
+        <v>3.853329130523521E-05</v>
       </c>
       <c r="T25">
-        <v>0.0007306643122985226</v>
+        <v>3.85332913052352E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>13955.63566854674</v>
+        <v>1038.359322266228</v>
       </c>
       <c r="R26">
-        <v>125600.7210169207</v>
+        <v>9345.233900396053</v>
       </c>
       <c r="S26">
-        <v>0.09113233874288629</v>
+        <v>0.004298271969081963</v>
       </c>
       <c r="T26">
-        <v>0.09113233874288629</v>
+        <v>0.004298271969081962</v>
       </c>
     </row>
   </sheetData>
